--- a/classfiers/sota/corelation/corelation-metrics/correlations-bottleneck.xlsx
+++ b/classfiers/sota/corelation/corelation-metrics/correlations-bottleneck.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.05479288231552002</v>
+        <v>-0.05911520252549123</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04166557101296963</v>
+        <v>-0.02167614560152239</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05347846531593304</v>
+        <v>0.000749395033762943</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.150365038121509</v>
+        <v>0.1517648994351227</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.009852353691610362</v>
+        <v>0.02817401172003063</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06953764905331634</v>
+        <v>0.05463902376273569</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1413422306630124</v>
+        <v>-0.103868954911362</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07815301974314219</v>
+        <v>0.05644528179501702</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0282780105099702</v>
+        <v>0.1240381626326189</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05484842206824041</v>
+        <v>-0.01209554489251601</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0003968984330242454</v>
+        <v>-0.09008308327892416</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02606419368608988</v>
+        <v>-0.1031425410751938</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07068166691079786</v>
+        <v>0.008221666846764255</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.07406950985435821</v>
+        <v>-0.0986063624511405</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.09068920748052781</v>
+        <v>-0.1086077795598894</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4739949658130387</v>
+        <v>0.359854664147532</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5428145753084821</v>
+        <v>0.4186845947699033</v>
       </c>
     </row>
   </sheetData>
